--- a/biology/Médecine/Marie-Ange_Grenier/Marie-Ange_Grenier.xlsx
+++ b/biology/Médecine/Marie-Ange_Grenier/Marie-Ange_Grenier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marie-Ange Grenier est une médecin française et militante pour les droits des personnes trans.
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Ange Grenier naît en Belgique[1]. Elle est médecin militaire de formation[2]. Femme trans, elle prend conscience d'être une femme dès l'enfance[1]. Elle entame une transition publique en 1977[3] après avoir épousé Marie-Claude Grenier neuf ans plus tôt[1],[4]. Elles travaillent toutes deux comme médecins dans un hôpital et se partagent un cabinet d'ophtalmologie[1].
-Marie-Ange Grenier fonde l'AMEFAT, Association médicale française pour l'aide aux transsexuels, en 1981[2] avec son épouse Marie-Claude[1], qui en est la présidente[5]. Il s'agit d'une des premières associations françaises de soutien aux personnes trans, après l'Association d'aide aux malades hormonaux (AMAHO) en 1965 et le Centre du Christ libérateur (CCL) en 1976[6], qui étaient toutefois toutes deux basées à Paris, alors que celle-ci l'est dans la région de Saint-Étienne (Loire)[7]. L'AMEFAT, qui réunit des médecins, des avocats et des juristes[5], est active à la fois dans le soutien aux personnes trans et dans le lobbying[2]. Le 8 octobre 1982, l'association organise une réunion publique sur la prise en charge des chirurgies de réattribution sexuelle avec le docteur Jacques Breton de l'hôpital Lariboisière de Paris[8],[9].
-À travers l'AMEFAT, Marie-Ange Grenier cherche à visibiliser la question trans[2],[10]. Elle participe ainsi, en 1982, à un dossier sur la transsexualité de la revue Masques, revue des homosexualités[5], en 1983, aux Universités d’été euroméditerranéennes des homosexualités de Marseille[2]. La même année, elle est une des personnalités mises en avant par la première émission de télévision française grand public consacrée au transsexualisme. Le documentaire, une carte blanche à Anne Gaillard[2] de 52 minutes, intitulé Le corps de mon identité : être transsexuel, est réalisé par Michel Folin avec Jacques-René Martin[11],[12] et diffusé dans Vendredi sur FR3 le 4 mars 1983[2],[1],[13],[Note 1]. Il suit Marie-Ange Grenier accueillant d'autres femmes trans dans son cabinet[14]. Marie-Ange Grenier devient une des figures trans médiatiques de la décennie (avec Coccinelle, Maud Marin et Sylviane Dullak)[15] ; la sociologue des médias Karine Espineira observe qu'elle livre une figure intégrationniste des femmes trans qui rassure le public[16].
-Cependant, d'après Maxime Foerster, auteur d'Une histoire des transsexuels en France, la « personnalité autoritaire » de Marie-Ange Grenier et sa « conception rigide de ce que doit être le transsexualisme »[Note 2], toute sauf consensuelle, ne permettent pas à l'AMEFAT d'avoir un impact significatif et de connaître une existence pérenne[2] ; elle disparaît avant la fin de la décennie 1980 avant d'être légalement dissoute en 1992[17].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Ange Grenier naît en Belgique. Elle est médecin militaire de formation. Femme trans, elle prend conscience d'être une femme dès l'enfance. Elle entame une transition publique en 1977 après avoir épousé Marie-Claude Grenier neuf ans plus tôt,. Elles travaillent toutes deux comme médecins dans un hôpital et se partagent un cabinet d'ophtalmologie.
+Marie-Ange Grenier fonde l'AMEFAT, Association médicale française pour l'aide aux transsexuels, en 1981 avec son épouse Marie-Claude, qui en est la présidente. Il s'agit d'une des premières associations françaises de soutien aux personnes trans, après l'Association d'aide aux malades hormonaux (AMAHO) en 1965 et le Centre du Christ libérateur (CCL) en 1976, qui étaient toutefois toutes deux basées à Paris, alors que celle-ci l'est dans la région de Saint-Étienne (Loire). L'AMEFAT, qui réunit des médecins, des avocats et des juristes, est active à la fois dans le soutien aux personnes trans et dans le lobbying. Le 8 octobre 1982, l'association organise une réunion publique sur la prise en charge des chirurgies de réattribution sexuelle avec le docteur Jacques Breton de l'hôpital Lariboisière de Paris,.
+À travers l'AMEFAT, Marie-Ange Grenier cherche à visibiliser la question trans,. Elle participe ainsi, en 1982, à un dossier sur la transsexualité de la revue Masques, revue des homosexualités, en 1983, aux Universités d’été euroméditerranéennes des homosexualités de Marseille. La même année, elle est une des personnalités mises en avant par la première émission de télévision française grand public consacrée au transsexualisme. Le documentaire, une carte blanche à Anne Gaillard de 52 minutes, intitulé Le corps de mon identité : être transsexuel, est réalisé par Michel Folin avec Jacques-René Martin, et diffusé dans Vendredi sur FR3 le 4 mars 1983[Note 1]. Il suit Marie-Ange Grenier accueillant d'autres femmes trans dans son cabinet. Marie-Ange Grenier devient une des figures trans médiatiques de la décennie (avec Coccinelle, Maud Marin et Sylviane Dullak) ; la sociologue des médias Karine Espineira observe qu'elle livre une figure intégrationniste des femmes trans qui rassure le public.
+Cependant, d'après Maxime Foerster, auteur d'Une histoire des transsexuels en France, la « personnalité autoritaire » de Marie-Ange Grenier et sa « conception rigide de ce que doit être le transsexualisme »[Note 2], toute sauf consensuelle, ne permettent pas à l'AMEFAT d'avoir un impact significatif et de connaître une existence pérenne ; elle disparaît avant la fin de la décennie 1980 avant d'être légalement dissoute en 1992.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1982 : Le corps de mon identité : être transsexuel de Michel Follin, FR3[11]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1982 : Le corps de mon identité : être transsexuel de Michel Follin, FR3</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Quel matériau le sexe ? La perspective transsexuelle... : Les immatériaux », dans Élie Théofilakis (dir.), Modernes et après ?, Paris, Autrement, 1985, 241 p. (ISBN 2-86260-136-5).</t>
         </is>
